--- a/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.197.19.188\KY-Share\★個人フォルダ★\藤田すずこ\ITA\ドキュメント\ITA導入支援\レビュー後_20210310\プルリク用\20210318\mail\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="サーバ連携_バックアップ対象一覧" sheetId="1" r:id="rId1"/>
@@ -749,6 +744,12 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,12 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2544,7 +2539,7 @@
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="3.625" style="2" bestFit="1" customWidth="1"/>
@@ -2561,13 +2556,13 @@
         <v>71</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="32"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2578,13 +2573,13 @@
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="32"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2595,7 +2590,7 @@
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2612,7 +2607,7 @@
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="17"/>
@@ -2629,7 +2624,7 @@
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
@@ -2644,7 +2639,7 @@
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="32"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="11"/>
@@ -2658,37 +2653,37 @@
     </row>
     <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="21" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="14" t="s">
         <v>2</v>
       </c>

--- a/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">サーバ連携_バックアップ対象一覧!$B$8:$C$8</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">サーバ連携_バックアップ対象一覧!$A$1:$M$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">サーバ連携_バックアップ対象一覧!$A$1:$M$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">サーバ連携_バックアップ対象一覧!$7:$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>ITA連携データ用途</t>
     <phoneticPr fontId="2"/>
@@ -442,9 +442,6 @@
     <t>/(ITAインストールディレクトリ)/ita-root/webroot/menus/users</t>
   </si>
   <si>
-    <t>/(ITAインストールディレクトリ)/ita-root/webconfs/sheets</t>
-  </si>
-  <si>
     <t>/(ITAインストールディレクトリ)/ita-root/webconfs/users</t>
   </si>
   <si>
@@ -470,8 +467,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ver1.6</t>
+    <t>CI/CD For IaC Git ローカルクローンディレクトリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ver1.8</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/(ITAインストールディレクトリ)/ita-root/webconfs/sheets</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/(ITAインストールディレクトリ)/ita-root/repositorys</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC機能で連携するGitリポジトリ数及びGitリポジトリ内のファイル数に依存</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2531,9 +2565,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2541,10 +2577,10 @@
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="3.625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
@@ -2553,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21"/>
@@ -2588,7 +2624,7 @@
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -2605,7 +2641,7 @@
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
@@ -2622,7 +2658,7 @@
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="1"/>
@@ -2715,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5">
         <v>777</v>
@@ -2752,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5">
         <v>777</v>
@@ -3034,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5">
         <v>755</v>
@@ -3069,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5">
         <v>755</v>
@@ -3129,6 +3165,41 @@
       </c>
       <c r="M20" s="8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3">
+        <v>755</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3217,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】サーバ連携／バックアップ対象一覧.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">サーバ連携_バックアップ対象一覧!$B$8:$C$8</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">サーバ連携_バックアップ対象一覧!$A$1:$M$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">サーバ連携_バックアップ対象一覧!$A$1:$M$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">サーバ連携_バックアップ対象一覧!$7:$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>ITA連携データ用途</t>
     <phoneticPr fontId="2"/>
@@ -442,9 +442,6 @@
     <t>/(ITAインストールディレクトリ)/ita-root/webroot/menus/users</t>
   </si>
   <si>
-    <t>/(ITAインストールディレクトリ)/ita-root/webconfs/sheets</t>
-  </si>
-  <si>
     <t>/(ITAインストールディレクトリ)/ita-root/webconfs/users</t>
   </si>
   <si>
@@ -470,8 +467,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ver1.6</t>
+    <t>CI/CD For IaC Git ローカルクローンディレクトリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ver1.8</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/(ITAインストールディレクトリ)/ita-root/webconfs/sheets</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/(ITAインストールディレクトリ)/ita-root/repositorys</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC機能で連携するGitリポジトリ数及びGitリポジトリ内のファイル数に依存</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2531,9 +2565,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2541,10 +2577,10 @@
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="3.625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
@@ -2553,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21"/>
@@ -2588,7 +2624,7 @@
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -2605,7 +2641,7 @@
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
@@ -2622,7 +2658,7 @@
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="1"/>
@@ -2715,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5">
         <v>777</v>
@@ -2752,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5">
         <v>777</v>
@@ -3034,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5">
         <v>755</v>
@@ -3069,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5">
         <v>755</v>
@@ -3129,6 +3165,39 @@
       </c>
       <c r="M20" s="8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3">
+        <v>755</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3215,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
